--- a/biology/Zoologie/Catriscus/Catriscus.xlsx
+++ b/biology/Zoologie/Catriscus/Catriscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catriscus est un genre monotypique de passereaux de la famille des Locustellidae. Il comprend une seule espèce de graminicoles.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre vit à l'état naturel en Afrique subsaharienne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre vit à l'état naturel en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.2, 2018) :
 Catriscus brevirostris (Sundevall, 1850) — Fauvette à large queue, Graminicole à bec court, Locustelle à bec court, Mégalure à bec court, Rousserolle à queue en éventail
 Catriscus brevirostris alexinae (Heuglin, 1863)
 Catriscus brevirostris brevirostris (Sundevall, 1850)</t>
@@ -575,9 +591,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant 2018, l'espèce Catriscus brevirostris faisait partie du genre Schoenicola, la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] l'a déplacée vers Catriscus, créé pour l'occasion, lors d'une réorganisation complète de la famille afin de suivre les conclusions d'une étude phylogénétique[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant 2018, l'espèce Catriscus brevirostris faisait partie du genre Schoenicola, la classification de référence du Congrès ornithologique international  (version 8.2, 2018) l'a déplacée vers Catriscus, créé pour l'occasion, lors d'une réorganisation complète de la famille afin de suivre les conclusions d'une étude phylogénétique.
 </t>
         </is>
       </c>
